--- a/medicine/Psychotrope/Pinotage/Pinotage.xlsx
+++ b/medicine/Psychotrope/Pinotage/Pinotage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le pinotage est un cépage de cuve noir créé par Abraham Perold en 1925, alors chercheur de l'université de Stellenbosch en Afrique du Sud. Il s'agit d'un croisement du pinot noir avec le cinsault (cinsault auparavant appelé hermitage, d'où le mot pinotage, contraction des mots pinot et hermitage).
@@ -513,7 +525,9 @@
           <t>Création du cépage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abraham Izak Perold cherchait à adapter le pinot noir au climat sud-africain, ce qui l'a amené à tester le croisement avec le cépage cinsault. Le cépage hybride obtenu se cultive facilement mais sa vinification exige un savoir-faire particulier.
 Le vin du nouveau vignoble est mis en bouteille pour la première fois en 1953. Il représente un réel marquage identitaire même si le succès n’est pas immédiatement au rendez-vous.
@@ -545,7 +559,9 @@
           <t>Qualité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les œnologues apprécient le moelleux qui vient au fil des ans arrondir le fruité des premières années. La robe est profonde et l'arôme habillée de saveurs d'épices.
 Le pinotage peut se garder au moins dix ans, révélant alors des arômes de fruit sec et des accents tannés. Du zinfandel auquel on le compare d'abord, il se rapproche plus tard des complexités de l'Amarone della Valpolicella.
@@ -577,7 +593,9 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La première mise en bouteille date de 1953. Ce sont les domaines de Bellevue et Kanonkop qui vont participer à la notoriété du pinotage. Bellevue remporte en 1960 le titre de meilleur vin au " General smuts trophy" alors le concours le plus prestigieux pour les vins sud-africains.
 Avec la fin de l'apartheid en 1994, l’accès au marché mondialisé du vin va notamment engendrer un  boom viticole. L’accent est mis sur la qualité des vins, de nouveaux cépages sont importés et l’encépagement rouge passe de 20 % en 1997 à plus de 45 % en 2017.
@@ -611,7 +629,9 @@
           <t>Production 2018 en Afrique du sud</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>6 791 ha plantés principalement à Stellenbosch, Paarl et Swartland, soit 7,3 % de la surface totale du vignoble.
 47 310 hectolitres pour le marché intérieur.
